--- a/biology/Médecine/Disaccharidase/Disaccharidase.xlsx
+++ b/biology/Médecine/Disaccharidase/Disaccharidase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les disaccharidases sont des glycosides hydrolases, des enzymes qui décomposent certains types de sucres appelés disaccharides en sucres plus simples appelés monosaccharides. Dans le corps humain, les disaccharidases sont fabriquées principalement dans une zone de la muqueuse intestinale du grêle appelée bordure en brosse, ce qui en fait des membres du groupe des «enzymes de bordure en brosse». 
 Un déficit génétique dans l'une de ces enzymes provoquera une intolérance au disaccharide, telle que l'intolérance au lactose ou au saccharose.  
@@ -513,13 +525,15 @@
           <t>Exemples de disaccharidases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lactase (décompose le lactose en glucose et en galactose)
 Maltase (décompose le maltose en 2 glucoses)
 Sucrase (décompose le saccharose en glucose et fructose)
 Tréhalase (décompose le tréhalose en 2 glucoses)
-Pour un aperçu scientifique détaillé des disaccharidases de l'intestin grêle, on peut consulter le chapitre 75 d'OMMBID[1].
+Pour un aperçu scientifique détaillé des disaccharidases de l'intestin grêle, on peut consulter le chapitre 75 d'OMMBID.
 Pour plus de ressources et de références en ligne, concernant les déficits génétiques, voir Erreur innée du métabolisme. 
 [style à revoir]</t>
         </is>
